--- a/data/trans_orig/IQ19B_M-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IQ19B_M-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF296CBB-187B-4619-B821-AF8D74C0AAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB2EF24-DF27-408B-AA57-F4EDCA9104AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67509CB4-42F6-4D93-87BB-7776098EC0B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B8E9F83B-5372-419E-82DC-08B96CAAE913}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="709">
   <si>
     <t>Menores en función del número de meses desde la última vez que acudieron al dentista en 2007 (Tasa respuesta: 69,49%)</t>
   </si>
@@ -191,2020 +191,1981 @@
     <t>8,71%</t>
   </si>
   <si>
-    <t>39,21%</t>
+    <t>39,12%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>15,98%</t>
+    <t>15,9%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>20,88%</t>
+    <t>30,21%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>18,96%</t>
+    <t>20,2%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>Menores en función del número de meses desde la última vez que acudieron al dentista en 2016 (Tasa respuesta: 20,93%)</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>Menores en función del número de meses desde la última vez que acudieron al dentista en 2023 (Tasa respuesta: 29,22%)</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>1,24%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>Menores en función del número de meses desde la última vez que acudieron al dentista en 2015 (Tasa respuesta: 20,93%)</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>Menores en función del número de meses desde la última vez que acudieron al dentista en 2023 (Tasa respuesta: 29,22%)</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>60,28%</t>
   </si>
   <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
   </si>
   <si>
     <t>59,96%</t>
   </si>
   <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
   </si>
   <si>
     <t>60,13%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
 </sst>
 </file>
@@ -2616,7 +2577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1ED271-5812-4F61-9F27-A20F8107E4FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3EC835-7CFC-486E-81B4-08D8D6C4A0E2}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4617,7 +4578,7 @@
         <v>419</v>
       </c>
       <c r="I41" s="7">
-        <v>274206</v>
+        <v>274205</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>14</v>
@@ -4668,7 +4629,7 @@
         <v>419</v>
       </c>
       <c r="I42" s="7">
-        <v>274206</v>
+        <v>274205</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>16</v>
@@ -6047,7 +6008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336B6FB8-ADA2-474D-92BC-6031CE3B1FC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2A70AF-8647-4574-A858-11B6C70B4DD5}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7459,7 +7420,7 @@
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7435,13 @@
         <v>4585</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -7489,13 +7450,13 @@
         <v>2731</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M31" s="7">
         <v>11</v>
@@ -7504,13 +7465,13 @@
         <v>7316</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7486,13 @@
         <v>2986</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -7540,13 +7501,13 @@
         <v>2831</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -7555,13 +7516,13 @@
         <v>5817</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7576,13 +7537,13 @@
         <v>1847</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H33" s="7">
         <v>4</v>
@@ -7591,13 +7552,13 @@
         <v>2655</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -7606,13 +7567,13 @@
         <v>4502</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7627,13 +7588,13 @@
         <v>1276</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -7642,13 +7603,13 @@
         <v>3649</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -7657,13 +7618,13 @@
         <v>4925</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,13 +7639,13 @@
         <v>3207</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -7693,13 +7654,13 @@
         <v>1264</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M35" s="7">
         <v>7</v>
@@ -7708,13 +7669,13 @@
         <v>4470</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,13 +7690,13 @@
         <v>1111</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -7744,13 +7705,13 @@
         <v>665</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -7759,13 +7720,13 @@
         <v>1776</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,7 +7747,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -7795,13 +7756,13 @@
         <v>609</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -7810,13 +7771,13 @@
         <v>609</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7831,13 +7792,13 @@
         <v>1954</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -7846,13 +7807,13 @@
         <v>1219</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -7861,13 +7822,13 @@
         <v>3174</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,13 +7843,13 @@
         <v>3017</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H39" s="7">
         <v>1</v>
@@ -7897,13 +7858,13 @@
         <v>950</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M39" s="7">
         <v>5</v>
@@ -7912,13 +7873,13 @@
         <v>3967</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,13 +7894,13 @@
         <v>1383</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H40" s="7">
         <v>1</v>
@@ -7954,7 +7915,7 @@
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -7963,13 +7924,13 @@
         <v>1847</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,13 +7945,13 @@
         <v>86429</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H41" s="7">
         <v>97</v>
@@ -7999,13 +7960,13 @@
         <v>68786</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="M41" s="7">
         <v>224</v>
@@ -8014,13 +7975,13 @@
         <v>155214</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8088,13 +8049,13 @@
         <v>668</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H43" s="7">
         <v>2</v>
@@ -8103,13 +8064,13 @@
         <v>1775</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -8118,13 +8079,13 @@
         <v>2443</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8139,13 +8100,13 @@
         <v>1248</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -8160,7 +8121,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -8169,13 +8130,13 @@
         <v>1248</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8190,13 +8151,13 @@
         <v>2077</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H45" s="7">
         <v>3</v>
@@ -8205,13 +8166,13 @@
         <v>2241</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>178</v>
+        <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M45" s="7">
         <v>6</v>
@@ -8220,13 +8181,13 @@
         <v>4318</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8241,13 +8202,13 @@
         <v>1664</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -8256,13 +8217,13 @@
         <v>698</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M46" s="7">
         <v>3</v>
@@ -8271,13 +8232,13 @@
         <v>2362</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,13 +8253,13 @@
         <v>625</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -8307,13 +8268,13 @@
         <v>1830</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -8322,13 +8283,13 @@
         <v>2455</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -8343,13 +8304,13 @@
         <v>2219</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="H48" s="7">
         <v>1</v>
@@ -8358,13 +8319,13 @@
         <v>669</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M48" s="7">
         <v>4</v>
@@ -8373,13 +8334,13 @@
         <v>2888</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8394,13 +8355,13 @@
         <v>747</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -8415,7 +8376,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M49" s="7">
         <v>1</v>
@@ -8424,13 +8385,13 @@
         <v>747</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8451,7 +8412,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -8466,7 +8427,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -8481,7 +8442,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8502,7 +8463,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -8511,13 +8472,13 @@
         <v>661</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M51" s="7">
         <v>1</v>
@@ -8526,13 +8487,13 @@
         <v>661</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>210</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8553,7 +8514,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -8568,7 +8529,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -8583,7 +8544,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8604,7 +8565,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -8619,7 +8580,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -8634,7 +8595,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8649,13 +8610,13 @@
         <v>19156</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H54" s="7">
         <v>29</v>
@@ -8664,13 +8625,13 @@
         <v>21013</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M54" s="7">
         <v>57</v>
@@ -8679,13 +8640,13 @@
         <v>40168</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8753,13 +8714,13 @@
         <v>1288</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H56" s="7">
         <v>2</v>
@@ -8768,13 +8729,13 @@
         <v>1775</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M56" s="7">
         <v>4</v>
@@ -8783,13 +8744,13 @@
         <v>3063</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>60</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8804,13 +8765,13 @@
         <v>5833</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>95</v>
+        <v>235</v>
       </c>
       <c r="H57" s="7">
         <v>4</v>
@@ -8819,13 +8780,13 @@
         <v>2731</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="M57" s="7">
         <v>13</v>
@@ -8834,13 +8795,13 @@
         <v>8565</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -8855,13 +8816,13 @@
         <v>6314</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="H58" s="7">
         <v>7</v>
@@ -8870,13 +8831,13 @@
         <v>5072</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="M58" s="7">
         <v>15</v>
@@ -8885,13 +8846,13 @@
         <v>11386</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>106</v>
+        <v>248</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8906,13 +8867,13 @@
         <v>4179</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H59" s="7">
         <v>7</v>
@@ -8921,13 +8882,13 @@
         <v>4760</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="M59" s="7">
         <v>13</v>
@@ -8936,13 +8897,13 @@
         <v>8939</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -8957,13 +8918,13 @@
         <v>1901</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H60" s="7">
         <v>7</v>
@@ -8972,13 +8933,13 @@
         <v>5479</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M60" s="7">
         <v>10</v>
@@ -8987,13 +8948,13 @@
         <v>7380</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -9008,13 +8969,13 @@
         <v>5426</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="H61" s="7">
         <v>3</v>
@@ -9023,13 +8984,13 @@
         <v>1933</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>259</v>
+        <v>91</v>
       </c>
       <c r="M61" s="7">
         <v>11</v>
@@ -9038,13 +8999,13 @@
         <v>7359</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -9059,13 +9020,13 @@
         <v>1858</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H62" s="7">
         <v>2</v>
@@ -9074,13 +9035,13 @@
         <v>1260</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M62" s="7">
         <v>4</v>
@@ -9089,13 +9050,13 @@
         <v>3118</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>133</v>
+        <v>273</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -9116,7 +9077,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -9125,13 +9086,13 @@
         <v>609</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>178</v>
+        <v>276</v>
       </c>
       <c r="M63" s="7">
         <v>1</v>
@@ -9146,7 +9107,7 @@
         <v>10</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -9161,13 +9122,13 @@
         <v>1954</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="H64" s="7">
         <v>4</v>
@@ -9176,13 +9137,13 @@
         <v>2598</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M64" s="7">
         <v>7</v>
@@ -9191,13 +9152,13 @@
         <v>4553</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>274</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -9212,13 +9173,13 @@
         <v>4447</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -9227,13 +9188,13 @@
         <v>950</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="M65" s="7">
         <v>7</v>
@@ -9242,13 +9203,13 @@
         <v>5397</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -9263,13 +9224,13 @@
         <v>1383</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="H66" s="7">
         <v>1</v>
@@ -9278,13 +9239,13 @@
         <v>464</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="M66" s="7">
         <v>3</v>
@@ -9293,13 +9254,13 @@
         <v>1847</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>148</v>
+        <v>292</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -9314,13 +9275,13 @@
         <v>116608</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="H67" s="7">
         <v>155</v>
@@ -9329,13 +9290,13 @@
         <v>110079</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M67" s="7">
         <v>326</v>
@@ -9344,13 +9305,13 @@
         <v>226687</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -9426,7 +9387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63ADF813-1060-40C7-92E0-1B65DDE7A791}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788D6CCA-F423-4F52-9726-95A455EAD296}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9443,7 +9404,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10143,7 +10104,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -10158,7 +10119,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -10173,7 +10134,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10188,13 +10149,13 @@
         <v>902</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -10203,13 +10164,13 @@
         <v>759</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -10218,13 +10179,13 @@
         <v>1661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10245,7 +10206,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -10260,7 +10221,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -10275,7 +10236,7 @@
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10290,13 +10251,13 @@
         <v>1009</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -10311,7 +10272,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -10320,13 +10281,13 @@
         <v>1009</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10341,13 +10302,13 @@
         <v>2016</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -10356,13 +10317,13 @@
         <v>657</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -10371,13 +10332,13 @@
         <v>2673</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>175</v>
+        <v>323</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10398,7 +10359,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -10413,7 +10374,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -10428,7 +10389,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10449,7 +10410,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -10464,7 +10425,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -10479,7 +10440,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10500,7 +10461,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -10515,7 +10476,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -10530,7 +10491,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10551,7 +10512,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -10560,13 +10521,13 @@
         <v>549</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -10575,13 +10536,13 @@
         <v>549</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10602,7 +10563,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -10617,7 +10578,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -10632,7 +10593,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10653,7 +10614,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -10668,7 +10629,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -10683,7 +10644,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10698,13 +10659,13 @@
         <v>12198</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -10713,13 +10674,13 @@
         <v>11188</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -10728,13 +10689,13 @@
         <v>23386</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10802,13 +10763,13 @@
         <v>708</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -10823,7 +10784,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -10838,7 +10799,7 @@
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10853,13 +10814,13 @@
         <v>1320</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -10868,13 +10829,13 @@
         <v>2005</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -10883,13 +10844,13 @@
         <v>3325</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>243</v>
+        <v>344</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10904,13 +10865,13 @@
         <v>5251</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>332</v>
+        <v>154</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>333</v>
+        <v>137</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -10919,13 +10880,13 @@
         <v>3944</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -10934,13 +10895,13 @@
         <v>9196</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>338</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10955,13 +10916,13 @@
         <v>5082</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>339</v>
+        <v>126</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -10970,13 +10931,13 @@
         <v>6472</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="M33" s="7">
         <v>16</v>
@@ -10985,13 +10946,13 @@
         <v>11554</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11009,10 +10970,10 @@
         <v>55</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="H34" s="7">
         <v>12</v>
@@ -11021,13 +10982,13 @@
         <v>7993</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>350</v>
+        <v>145</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="M34" s="7">
         <v>22</v>
@@ -11036,13 +10997,13 @@
         <v>15134</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>295</v>
+        <v>363</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>61</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11057,13 +11018,13 @@
         <v>5746</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>353</v>
+        <v>142</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -11072,13 +11033,13 @@
         <v>7186</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>256</v>
+        <v>122</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="M35" s="7">
         <v>18</v>
@@ -11087,13 +11048,13 @@
         <v>12932</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11114,7 +11075,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -11129,7 +11090,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -11144,7 +11105,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11165,7 +11126,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -11174,13 +11135,13 @@
         <v>646</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -11189,13 +11150,13 @@
         <v>646</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11216,7 +11177,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -11225,13 +11186,13 @@
         <v>1306</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -11240,13 +11201,13 @@
         <v>1306</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>366</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11267,7 +11228,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -11282,7 +11243,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -11297,7 +11258,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11312,13 +11273,13 @@
         <v>1276</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>114</v>
+        <v>377</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -11327,13 +11288,13 @@
         <v>1164</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>114</v>
+        <v>377</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>225</v>
+        <v>379</v>
       </c>
       <c r="M40" s="7">
         <v>4</v>
@@ -11342,13 +11303,13 @@
         <v>2440</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>114</v>
+        <v>377</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>39</v>
+        <v>380</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>368</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11363,13 +11324,13 @@
         <v>90205</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="H41" s="7">
         <v>110</v>
@@ -11378,13 +11339,13 @@
         <v>75753</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="M41" s="7">
         <v>233</v>
@@ -11393,13 +11354,13 @@
         <v>165957</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11473,7 +11434,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -11488,7 +11449,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -11503,7 +11464,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11524,7 +11485,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -11533,13 +11494,13 @@
         <v>985</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -11548,13 +11509,13 @@
         <v>985</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11569,13 +11530,13 @@
         <v>2092</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -11584,13 +11545,13 @@
         <v>1223</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>386</v>
+        <v>135</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="M45" s="7">
         <v>5</v>
@@ -11599,13 +11560,13 @@
         <v>3315</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>91</v>
+        <v>339</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11620,13 +11581,13 @@
         <v>690</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="H46" s="7">
         <v>4</v>
@@ -11635,13 +11596,13 @@
         <v>3212</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="M46" s="7">
         <v>5</v>
@@ -11650,13 +11611,13 @@
         <v>3902</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>206</v>
+        <v>407</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11671,13 +11632,13 @@
         <v>818</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="H47" s="7">
         <v>2</v>
@@ -11686,13 +11647,13 @@
         <v>1288</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -11701,13 +11662,13 @@
         <v>2106</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11722,13 +11683,13 @@
         <v>2190</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="H48" s="7">
         <v>4</v>
@@ -11737,13 +11698,13 @@
         <v>3179</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="M48" s="7">
         <v>7</v>
@@ -11752,13 +11713,13 @@
         <v>5369</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>259</v>
+        <v>419</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -11779,7 +11740,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -11794,7 +11755,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -11809,7 +11770,7 @@
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11824,13 +11785,13 @@
         <v>692</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -11845,7 +11806,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -11854,13 +11815,13 @@
         <v>692</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>410</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11881,7 +11842,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -11896,7 +11857,7 @@
         <v>11</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -11911,7 +11872,7 @@
         <v>11</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -11926,13 +11887,13 @@
         <v>1309</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -11941,13 +11902,13 @@
         <v>706</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="M52" s="7">
         <v>3</v>
@@ -11956,13 +11917,13 @@
         <v>2015</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -11977,13 +11938,13 @@
         <v>1930</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -11998,7 +11959,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M53" s="7">
         <v>3</v>
@@ -12007,13 +11968,13 @@
         <v>1929</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -12028,13 +11989,13 @@
         <v>18750</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H54" s="7">
         <v>32</v>
@@ -12043,13 +12004,13 @@
         <v>22068</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="M54" s="7">
         <v>60</v>
@@ -12058,13 +12019,13 @@
         <v>40818</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -12132,13 +12093,13 @@
         <v>708</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>430</v>
+        <v>323</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -12153,7 +12114,7 @@
         <v>11</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M56" s="7">
         <v>1</v>
@@ -12162,13 +12123,13 @@
         <v>708</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -12183,13 +12144,13 @@
         <v>2222</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>260</v>
+        <v>439</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>431</v>
+        <v>256</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>109</v>
+        <v>440</v>
       </c>
       <c r="H57" s="7">
         <v>5</v>
@@ -12198,13 +12159,13 @@
         <v>3750</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>345</v>
+        <v>443</v>
       </c>
       <c r="M57" s="7">
         <v>8</v>
@@ -12213,13 +12174,13 @@
         <v>5972</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>232</v>
+        <v>444</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -12234,13 +12195,13 @@
         <v>7343</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>178</v>
+        <v>445</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="H58" s="7">
         <v>8</v>
@@ -12249,13 +12210,13 @@
         <v>5167</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>382</v>
+        <v>84</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="M58" s="7">
         <v>18</v>
@@ -12264,13 +12225,13 @@
         <v>12510</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>109</v>
+        <v>449</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -12285,13 +12246,13 @@
         <v>6781</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>178</v>
+        <v>276</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>439</v>
+        <v>360</v>
       </c>
       <c r="H59" s="7">
         <v>13</v>
@@ -12300,13 +12261,13 @@
         <v>9684</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>48</v>
+        <v>251</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="M59" s="7">
         <v>22</v>
@@ -12315,13 +12276,13 @@
         <v>16465</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -12336,13 +12297,13 @@
         <v>9976</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>367</v>
+        <v>459</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="H60" s="7">
         <v>15</v>
@@ -12351,13 +12312,13 @@
         <v>9938</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="M60" s="7">
         <v>29</v>
@@ -12366,13 +12327,13 @@
         <v>19914</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>451</v>
+        <v>269</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -12387,13 +12348,13 @@
         <v>7936</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>353</v>
+        <v>142</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>60</v>
+        <v>466</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="H61" s="7">
         <v>14</v>
@@ -12402,13 +12363,13 @@
         <v>10365</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>455</v>
+        <v>190</v>
       </c>
       <c r="M61" s="7">
         <v>25</v>
@@ -12417,13 +12378,13 @@
         <v>18300</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -12444,7 +12405,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -12459,7 +12420,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -12474,7 +12435,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -12489,13 +12450,13 @@
         <v>692</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -12504,13 +12465,13 @@
         <v>646</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="M63" s="7">
         <v>2</v>
@@ -12519,13 +12480,13 @@
         <v>1337</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="P63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -12546,7 +12507,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H64" s="7">
         <v>3</v>
@@ -12555,13 +12516,13 @@
         <v>1855</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>462</v>
+        <v>192</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>69</v>
+        <v>478</v>
       </c>
       <c r="M64" s="7">
         <v>3</v>
@@ -12570,10 +12531,10 @@
         <v>1855</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="Q64" s="7" t="s">
         <v>245</v>
@@ -12591,13 +12552,13 @@
         <v>1309</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>467</v>
+        <v>407</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -12612,7 +12573,7 @@
         <v>10</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>361</v>
+        <v>214</v>
       </c>
       <c r="M65" s="7">
         <v>3</v>
@@ -12621,13 +12582,13 @@
         <v>2015</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>148</v>
+        <v>292</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -12642,13 +12603,13 @@
         <v>3205</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>470</v>
+        <v>242</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>105</v>
+        <v>483</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="H66" s="7">
         <v>2</v>
@@ -12657,13 +12618,13 @@
         <v>1164</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>472</v>
+        <v>95</v>
       </c>
       <c r="K66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>151</v>
+        <v>466</v>
       </c>
       <c r="M66" s="7">
         <v>7</v>
@@ -12672,13 +12633,13 @@
         <v>4370</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>96</v>
+        <v>485</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>136</v>
+        <v>376</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>473</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -12693,13 +12654,13 @@
         <v>121153</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="H67" s="7">
         <v>158</v>
@@ -12708,13 +12669,13 @@
         <v>109009</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="M67" s="7">
         <v>327</v>
@@ -12723,13 +12684,13 @@
         <v>230162</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -12805,7 +12766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB39D34-BAF2-4269-AB59-490D42B9374A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC31F949-D487-413A-89BF-127486D1407A}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12822,7 +12783,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -13537,7 +13498,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -13552,7 +13513,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -13588,7 +13549,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -13603,7 +13564,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -13618,13 +13579,13 @@
         <v>2142</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>486</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -13633,13 +13594,13 @@
         <v>2421</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -13648,13 +13609,13 @@
         <v>4563</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -13669,13 +13630,13 @@
         <v>1488</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -13684,13 +13645,13 @@
         <v>1210</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -13699,13 +13660,13 @@
         <v>2697</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>498</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -13735,13 +13696,13 @@
         <v>750</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>367</v>
+        <v>508</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="M21" s="7">
         <v>1</v>
@@ -13750,13 +13711,13 @@
         <v>750</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -13771,13 +13732,13 @@
         <v>1857</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -13786,13 +13747,13 @@
         <v>809</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -13801,13 +13762,13 @@
         <v>2666</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>338</v>
+        <v>515</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>92</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -13822,13 +13783,13 @@
         <v>822</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -13843,7 +13804,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -13852,13 +13813,13 @@
         <v>822</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>401</v>
+        <v>519</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -13894,7 +13855,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -13909,7 +13870,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -13939,13 +13900,13 @@
         <v>2473</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -13954,13 +13915,13 @@
         <v>2473</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -13996,7 +13957,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -14011,7 +13972,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -14026,13 +13987,13 @@
         <v>981</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -14041,13 +14002,13 @@
         <v>823</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -14056,13 +14017,13 @@
         <v>1804</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>518</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -14077,13 +14038,13 @@
         <v>9543</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -14092,13 +14053,13 @@
         <v>13396</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="M28" s="7">
         <v>30</v>
@@ -14107,13 +14068,13 @@
         <v>22939</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -14187,7 +14148,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -14196,13 +14157,13 @@
         <v>424</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -14211,13 +14172,13 @@
         <v>424</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -14232,13 +14193,13 @@
         <v>6606</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -14247,13 +14208,13 @@
         <v>4390</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>533</v>
+        <v>290</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -14262,13 +14223,13 @@
         <v>10996</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>470</v>
+        <v>546</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>537</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -14283,13 +14244,13 @@
         <v>11782</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>95</v>
+        <v>547</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -14298,13 +14259,13 @@
         <v>12021</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>540</v>
+        <v>238</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="M32" s="7">
         <v>28</v>
@@ -14313,13 +14274,13 @@
         <v>23803</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -14334,13 +14295,13 @@
         <v>12087</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>546</v>
+        <v>484</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>200</v>
+        <v>327</v>
       </c>
       <c r="H33" s="7">
         <v>14</v>
@@ -14349,13 +14310,13 @@
         <v>8942</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>144</v>
+        <v>555</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>548</v>
+        <v>355</v>
       </c>
       <c r="M33" s="7">
         <v>30</v>
@@ -14364,13 +14325,13 @@
         <v>21030</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>171</v>
+        <v>238</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -14385,13 +14346,13 @@
         <v>2262</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>431</v>
+        <v>559</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="H34" s="7">
         <v>8</v>
@@ -14400,13 +14361,13 @@
         <v>4596</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>551</v>
+        <v>84</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>552</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -14415,13 +14376,13 @@
         <v>6858</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>340</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -14436,13 +14397,13 @@
         <v>10460</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>555</v>
+        <v>264</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="H35" s="7">
         <v>16</v>
@@ -14451,13 +14412,13 @@
         <v>11639</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="M35" s="7">
         <v>30</v>
@@ -14466,13 +14427,13 @@
         <v>22099</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>353</v>
+        <v>566</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -14487,13 +14448,13 @@
         <v>2226</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>563</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>564</v>
+        <v>529</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -14502,13 +14463,13 @@
         <v>2177</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -14517,13 +14478,13 @@
         <v>4403</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>566</v>
+        <v>476</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>304</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -14538,13 +14499,13 @@
         <v>2033</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -14553,13 +14514,13 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>472</v>
+        <v>95</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>87</v>
+        <v>573</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -14568,13 +14529,13 @@
         <v>3066</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>133</v>
+        <v>575</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -14589,13 +14550,13 @@
         <v>9004</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -14604,13 +14565,13 @@
         <v>1966</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>363</v>
+        <v>580</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="M38" s="7">
         <v>14</v>
@@ -14619,13 +14580,13 @@
         <v>10970</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>575</v>
+        <v>475</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -14640,13 +14601,13 @@
         <v>3435</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>401</v>
+        <v>519</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>80</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>577</v>
+        <v>105</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -14655,13 +14616,13 @@
         <v>2345</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>228</v>
+        <v>584</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
@@ -14670,13 +14631,13 @@
         <v>5781</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>466</v>
+        <v>586</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>141</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -14697,7 +14658,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H40" s="7">
         <v>2</v>
@@ -14706,13 +14667,13 @@
         <v>1108</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>580</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -14721,13 +14682,13 @@
         <v>1108</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>431</v>
+        <v>256</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -14742,13 +14703,13 @@
         <v>102153</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="H41" s="7">
         <v>111</v>
@@ -14757,13 +14718,13 @@
         <v>84960</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="M41" s="7">
         <v>235</v>
@@ -14772,13 +14733,13 @@
         <v>187112</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -14846,13 +14807,13 @@
         <v>1701</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -14861,13 +14822,13 @@
         <v>1029</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -14876,13 +14837,13 @@
         <v>2730</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -14897,13 +14858,13 @@
         <v>4277</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>596</v>
+        <v>475</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -14912,13 +14873,13 @@
         <v>398</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="M44" s="7">
         <v>5</v>
@@ -14927,13 +14888,13 @@
         <v>4676</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>599</v>
+        <v>439</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>600</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -14948,13 +14909,13 @@
         <v>2933</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>134</v>
+        <v>351</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>602</v>
+        <v>500</v>
       </c>
       <c r="H45" s="7">
         <v>7</v>
@@ -14963,13 +14924,13 @@
         <v>5155</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="M45" s="7">
         <v>12</v>
@@ -14978,13 +14939,13 @@
         <v>8089</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>608</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -14999,13 +14960,13 @@
         <v>3579</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>276</v>
+        <v>582</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="H46" s="7">
         <v>8</v>
@@ -15014,13 +14975,13 @@
         <v>4952</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>388</v>
+        <v>614</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>612</v>
+        <v>15</v>
       </c>
       <c r="M46" s="7">
         <v>12</v>
@@ -15029,13 +14990,13 @@
         <v>8532</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>123</v>
+        <v>616</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -15050,13 +15011,13 @@
         <v>3784</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>615</v>
+        <v>391</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>616</v>
+        <v>65</v>
       </c>
       <c r="H47" s="7">
         <v>3</v>
@@ -15065,13 +15026,13 @@
         <v>2001</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>108</v>
+        <v>618</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>617</v>
+        <v>153</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="M47" s="7">
         <v>7</v>
@@ -15080,13 +15041,13 @@
         <v>5785</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>580</v>
+        <v>155</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -15101,13 +15062,13 @@
         <v>3212</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>227</v>
+        <v>539</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H48" s="7">
         <v>7</v>
@@ -15116,13 +15077,13 @@
         <v>4419</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M48" s="7">
         <v>12</v>
@@ -15131,10 +15092,10 @@
         <v>7631</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>626</v>
+        <v>229</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>627</v>
@@ -15158,7 +15119,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -15203,13 +15164,13 @@
         <v>2338</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>491</v>
+        <v>630</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -15218,13 +15179,13 @@
         <v>496</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M50" s="7">
         <v>3</v>
@@ -15233,13 +15194,13 @@
         <v>2833</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>221</v>
+        <v>634</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>633</v>
+        <v>337</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>67</v>
+        <v>635</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -15260,7 +15221,7 @@
         <v>10</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -15284,13 +15245,13 @@
         <v>1731</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -15305,13 +15266,13 @@
         <v>2384</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>638</v>
+        <v>428</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H52" s="7">
         <v>2</v>
@@ -15320,7 +15281,7 @@
         <v>1746</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>640</v>
+        <v>375</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>10</v>
@@ -15338,10 +15299,10 @@
         <v>642</v>
       </c>
       <c r="P52" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q52" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -15362,7 +15323,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="H53" s="7">
         <v>1</v>
@@ -15377,7 +15338,7 @@
         <v>10</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -15386,13 +15347,13 @@
         <v>658</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>646</v>
+        <v>600</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>647</v>
+        <v>570</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -15407,13 +15368,13 @@
         <v>29627</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="H54" s="7">
         <v>33</v>
@@ -15422,13 +15383,13 @@
         <v>21438</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M54" s="7">
         <v>73</v>
@@ -15437,13 +15398,13 @@
         <v>51066</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -15511,13 +15472,13 @@
         <v>1701</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>657</v>
+        <v>483</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>658</v>
+        <v>214</v>
       </c>
       <c r="H56" s="7">
         <v>2</v>
@@ -15526,13 +15487,13 @@
         <v>1453</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>657</v>
+        <v>483</v>
       </c>
       <c r="K56" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>343</v>
+        <v>654</v>
       </c>
       <c r="M56" s="7">
         <v>4</v>
@@ -15541,13 +15502,13 @@
         <v>3154</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>657</v>
+        <v>483</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>563</v>
+        <v>231</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>277</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -15562,13 +15523,13 @@
         <v>10883</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>660</v>
+        <v>261</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="H57" s="7">
         <v>7</v>
@@ -15577,13 +15538,13 @@
         <v>4788</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>436</v>
+        <v>657</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>229</v>
+        <v>659</v>
       </c>
       <c r="M57" s="7">
         <v>18</v>
@@ -15592,13 +15553,13 @@
         <v>15671</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>663</v>
+        <v>462</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>664</v>
+        <v>276</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -15613,13 +15574,13 @@
         <v>16858</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>667</v>
+        <v>154</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="H58" s="7">
         <v>25</v>
@@ -15628,13 +15589,13 @@
         <v>19597</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>394</v>
+        <v>663</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M58" s="7">
         <v>45</v>
@@ -15643,13 +15604,13 @@
         <v>36455</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -15664,13 +15625,13 @@
         <v>17154</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H59" s="7">
         <v>24</v>
@@ -15679,13 +15640,13 @@
         <v>15105</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="M59" s="7">
         <v>45</v>
@@ -15694,13 +15655,13 @@
         <v>32259</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>680</v>
+        <v>505</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -15715,13 +15676,13 @@
         <v>6046</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="H60" s="7">
         <v>12</v>
@@ -15730,13 +15691,13 @@
         <v>7347</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>500</v>
+        <v>678</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>684</v>
+        <v>406</v>
       </c>
       <c r="M60" s="7">
         <v>19</v>
@@ -15745,13 +15706,13 @@
         <v>13394</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>685</v>
+        <v>185</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>277</v>
+        <v>444</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>579</v>
+        <v>679</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -15766,13 +15727,13 @@
         <v>15529</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>127</v>
+        <v>681</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>314</v>
+        <v>682</v>
       </c>
       <c r="H61" s="7">
         <v>24</v>
@@ -15781,13 +15742,13 @@
         <v>16867</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="M61" s="7">
         <v>45</v>
@@ -15796,13 +15757,13 @@
         <v>32396</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>691</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -15817,13 +15778,13 @@
         <v>3048</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>692</v>
+        <v>559</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>693</v>
+        <v>145</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -15832,13 +15793,13 @@
         <v>2177</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>114</v>
+        <v>377</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>695</v>
+        <v>290</v>
       </c>
       <c r="M62" s="7">
         <v>7</v>
@@ -15847,13 +15808,13 @@
         <v>5226</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>252</v>
+        <v>688</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -15868,13 +15829,13 @@
         <v>4370</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>268</v>
+        <v>584</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="H63" s="7">
         <v>2</v>
@@ -15883,13 +15844,13 @@
         <v>1529</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>278</v>
+        <v>691</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>698</v>
+        <v>372</v>
       </c>
       <c r="M63" s="7">
         <v>6</v>
@@ -15898,13 +15859,13 @@
         <v>5899</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>699</v>
+        <v>206</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>698</v>
+        <v>392</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -15919,13 +15880,13 @@
         <v>10735</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>667</v>
+        <v>111</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="H64" s="7">
         <v>4</v>
@@ -15934,13 +15895,13 @@
         <v>4439</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>702</v>
+        <v>275</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="M64" s="7">
         <v>17</v>
@@ -15949,13 +15910,13 @@
         <v>15174</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>704</v>
+        <v>286</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>619</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -15970,13 +15931,13 @@
         <v>5819</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>430</v>
+        <v>202</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="H65" s="7">
         <v>5</v>
@@ -15985,13 +15946,13 @@
         <v>4091</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>707</v>
+        <v>546</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>708</v>
+        <v>129</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>471</v>
+        <v>281</v>
       </c>
       <c r="M65" s="7">
         <v>12</v>
@@ -16000,13 +15961,13 @@
         <v>9910</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>167</v>
+        <v>697</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>709</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -16021,13 +15982,13 @@
         <v>981</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="H66" s="7">
         <v>4</v>
@@ -16036,13 +15997,13 @@
         <v>2589</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>711</v>
+        <v>291</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="M66" s="7">
         <v>5</v>
@@ -16051,13 +16012,13 @@
         <v>3570</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -16072,13 +16033,13 @@
         <v>141323</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="H67" s="7">
         <v>162</v>
@@ -16087,13 +16048,13 @@
         <v>119794</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="M67" s="7">
         <v>338</v>
@@ -16102,13 +16063,13 @@
         <v>261117</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
